--- a/Excel/res/services/File/Json/Json.xlsx
+++ b/Excel/res/services/File/Json/Json.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/File/Json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEAFC836-6879-C843-979E-AF2F2653DDAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE14F3-F102-C946-8226-22A54571D4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37080" yWindow="4020" windowWidth="22940" windowHeight="14180" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
@@ -233,10 +233,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;d&gt;pathValueDict</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用来覆盖的内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,6 +282,10 @@
   </si>
   <si>
     <t>temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;d&gt;overrideDict</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,6 +628,12 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -637,92 +643,86 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="C10" sqref="C10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1055,11 +1055,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="24"/>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
@@ -1068,11 +1068,11 @@
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="29"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7"/>
@@ -1082,10 +1082,10 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
@@ -1095,10 +1095,10 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
@@ -1108,18 +1108,18 @@
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="33"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="34"/>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -1128,22 +1128,22 @@
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="46"/>
-      <c r="B8" s="22" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12"/>
@@ -1153,147 +1153,147 @@
       <c r="C9" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12"/>
-      <c r="B10" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="44" t="s">
+      <c r="B10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
+      <c r="C10" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="12"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="36"/>
-      <c r="F11" s="37"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="38"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="38"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="38"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="38"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="38"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="12"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="38"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="12"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="41"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="12"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="42"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="17"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="47"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="20"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">

--- a/Excel/res/services/File/Json/Json.xlsx
+++ b/Excel/res/services/File/Json/Json.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/File/Json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DFE14F3-F102-C946-8226-22A54571D4DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0117D3-1560-854A-83A1-508155B9CB3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="37080" yWindow="4020" windowWidth="22940" windowHeight="14180" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
   <sheets>
-    <sheet name="WorkFlow&lt;cmd&gt;" sheetId="1" r:id="rId1"/>
+    <sheet name="MargeJsonDict&lt;cmd&gt;" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -213,10 +213,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OverridePathValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用当前配置去覆盖json文件内容</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -285,7 +281,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;d&gt;overrideDict</t>
+    <t>&lt;d&gt;margeJsonDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MargeJsonDict</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,6 +634,45 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -684,45 +723,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:F10"/>
+      <selection activeCell="C7" sqref="C7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1055,11 +1055,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="37"/>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="39"/>
+      <c r="A1" s="20"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
@@ -1068,11 +1068,11 @@
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="41"/>
-      <c r="E2" s="42"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="25"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7"/>
@@ -1082,10 +1082,10 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="44"/>
+      <c r="E3" s="27"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
@@ -1095,10 +1095,10 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="D4" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="44"/>
+      <c r="E4" s="27"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
@@ -1108,18 +1108,18 @@
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="45" t="s">
+      <c r="D5" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="46"/>
+      <c r="E5" s="29"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="47"/>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -1128,183 +1128,175 @@
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
+      <c r="C7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="16"/>
-      <c r="B8" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="B8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12"/>
       <c r="B9" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12"/>
-      <c r="B10" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
+      <c r="B10" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="47"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="12"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="30"/>
-      <c r="F11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" s="43"/>
+      <c r="F11" s="44"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="28"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="41"/>
       <c r="E12" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="28"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="45"/>
+      <c r="D13" s="41"/>
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="28"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="45"/>
+      <c r="D14" s="41"/>
       <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="28"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="41"/>
       <c r="E15" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="28"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="45"/>
+      <c r="D16" s="41"/>
       <c r="E16" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="12"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="28"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="41"/>
       <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="12"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18" s="37"/>
+      <c r="F18" s="38"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="12"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="39"/>
       <c r="E19" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="17"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="27"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="40"/>
       <c r="E20" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="21"/>
-      <c r="B21" s="22"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="A6:F6"/>
     <mergeCell ref="B10:B20"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="A21:F21"/>
@@ -1314,6 +1306,14 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="C11:C20"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/res/services/File/Json/Json.xlsx
+++ b/Excel/res/services/File/Json/Json.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/File/Json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E0117D3-1560-854A-83A1-508155B9CB3B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3320CDC1-ADCB-2D4E-A1EA-F6172A6E5B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37080" yWindow="4020" windowWidth="22940" windowHeight="14180" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
+    <workbookView xWindow="45860" yWindow="460" windowWidth="22940" windowHeight="28340" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
   <sheets>
     <sheet name="MargeJsonDict&lt;cmd&gt;" sheetId="1" r:id="rId1"/>
@@ -217,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;s&gt;jsonFilePath</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{subResFolderPath}/jsconfig.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -286,6 +282,10 @@
   </si>
   <si>
     <t>MargeJsonDict</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;toJsonFilePath</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1041,7 +1041,7 @@
   <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:F7"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1129,7 +1129,7 @@
         <v>14</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="19"/>
@@ -1148,13 +1148,13 @@
     <row r="9" spans="1:6">
       <c r="A9" s="12"/>
       <c r="B9" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="33" t="s">
         <v>16</v>
-      </c>
-      <c r="D9" s="33" t="s">
-        <v>17</v>
       </c>
       <c r="E9" s="33"/>
       <c r="F9" s="33"/>
@@ -1162,10 +1162,10 @@
     <row r="10" spans="1:6">
       <c r="A10" s="12"/>
       <c r="B10" s="31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="46"/>
       <c r="E10" s="46"/>
@@ -1176,7 +1176,7 @@
       <c r="B11" s="32"/>
       <c r="C11" s="45"/>
       <c r="D11" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E11" s="43"/>
       <c r="F11" s="44"/>
@@ -1190,7 +1190,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1202,7 +1202,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1214,7 +1214,7 @@
         <v>13</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1226,7 +1226,7 @@
         <v>13</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1238,7 +1238,7 @@
         <v>13</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1250,7 +1250,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1258,7 +1258,7 @@
       <c r="B18" s="32"/>
       <c r="C18" s="45"/>
       <c r="D18" s="36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E18" s="37"/>
       <c r="F18" s="38"/>
@@ -1269,10 +1269,10 @@
       <c r="C19" s="45"/>
       <c r="D19" s="39"/>
       <c r="E19" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1281,10 +1281,10 @@
       <c r="C20" s="45"/>
       <c r="D20" s="40"/>
       <c r="E20" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:6">

--- a/Excel/res/services/File/Json/Json.xlsx
+++ b/Excel/res/services/File/Json/Json.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Files/develop/GitHub/PY_Service/Excel/res/services/File/Json/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3320CDC1-ADCB-2D4E-A1EA-F6172A6E5B59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92FE8244-8596-194C-8C13-9EDCA3E9172C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45860" yWindow="460" windowWidth="22940" windowHeight="28340" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
+    <workbookView xWindow="45860" yWindow="460" windowWidth="22940" windowHeight="28340" activeTab="1" xr2:uid="{3400439D-6956-7444-B596-8DA8A64B58D7}"/>
   </bookViews>
   <sheets>
     <sheet name="MargeJsonDict&lt;cmd&gt;" sheetId="1" r:id="rId1"/>
+    <sheet name="DiffJsonFile&lt;cmd&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -151,8 +152,130 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>贾世洋</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{613D4D16-A8AD-2049-A125-884C24190151}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>第一列的值做分割</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0" shapeId="0" xr:uid="{1C863454-D84E-CA43-9831-8743C93067D9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>运行环境</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">    __folder__
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">        Execl</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>所在的文件夹</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">    __pwd__
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">        </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Microsoft YaHei UI"/>
+            <charset val="134"/>
+          </rPr>
+          <t>执行命令的路径</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <t>全局参数</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +409,50 @@
   </si>
   <si>
     <t>&lt;s&gt;toJsonFilePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DiffJsonFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被比较文件a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被比较文件b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比较结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;diffJsonFilePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;newJsonFilePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;s&gt;oldJsonFilePath</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{__folder__}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{subResFolderPath}/diff/a.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{subResFolderPath}/diff/b.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{subResFolderPath}/diff/diff.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -634,45 +801,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -723,6 +851,45 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1040,7 +1207,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8DCF3CD-B534-DA45-B2FF-D46346E2E15A}">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -1055,11 +1222,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="20"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="22"/>
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="3" t="s">
@@ -1068,11 +1235,11 @@
       <c r="B2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="7"/>
@@ -1082,10 +1249,10 @@
       <c r="C3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="27"/>
+      <c r="E3" s="44"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="8"/>
@@ -1095,10 +1262,10 @@
       <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="27"/>
+      <c r="E4" s="44"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="8"/>
@@ -1108,18 +1275,18 @@
       <c r="C5" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="29"/>
+      <c r="E5" s="46"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="30"/>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
@@ -1128,22 +1295,22 @@
       <c r="B7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="16"/>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12"/>
@@ -1153,39 +1320,39 @@
       <c r="C9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D9" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="12"/>
-      <c r="B10" s="31" t="s">
+      <c r="B10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="46" t="s">
+      <c r="C10" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="12"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="42" t="s">
+      <c r="B11" s="19"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="43"/>
-      <c r="F11" s="44"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="12"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="41"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="11" t="s">
         <v>13</v>
       </c>
@@ -1195,9 +1362,9 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="12"/>
-      <c r="B13" s="32"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="41"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="28"/>
       <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
@@ -1207,9 +1374,9 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="12"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="41"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="28"/>
       <c r="E14" s="11" t="s">
         <v>13</v>
       </c>
@@ -1219,9 +1386,9 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="12"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="41"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="28"/>
       <c r="E15" s="11" t="s">
         <v>13</v>
       </c>
@@ -1231,9 +1398,9 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12"/>
-      <c r="B16" s="32"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="41"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="28"/>
       <c r="E16" s="11" t="s">
         <v>13</v>
       </c>
@@ -1243,9 +1410,9 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="12"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="41"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="28"/>
       <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
@@ -1255,19 +1422,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="12"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="36" t="s">
+      <c r="B18" s="19"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="37"/>
-      <c r="F18" s="38"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="12"/>
-      <c r="B19" s="32"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="39"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="26"/>
       <c r="E19" s="11" t="s">
         <v>21</v>
       </c>
@@ -1277,9 +1444,9 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="17"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="40"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="27"/>
       <c r="E20" s="11" t="s">
         <v>22</v>
       </c>
@@ -1288,15 +1455,23 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="34"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="A21" s="21"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="A6:F6"/>
     <mergeCell ref="B10:B20"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="A21:F21"/>
@@ -1306,8 +1481,181 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="C11:C20"/>
     <mergeCell ref="C10:F10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEE3409-A3B1-2143-9A09-33651DA00BBE}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.5" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="37"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="39"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="7"/>
+      <c r="B3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="44"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="8"/>
+      <c r="B4" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="44"/>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="8"/>
+      <c r="B5" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="46"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="47"/>
+      <c r="B6" s="47"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="16"/>
+      <c r="B8" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="12"/>
+      <c r="B9" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="12"/>
+      <c r="B10" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="12"/>
+      <c r="B11" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="21"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="C7:F7"/>
     <mergeCell ref="B8:F8"/>
-    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="D9:F9"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="D3:E3"/>
